--- a/Project1/Data Tables.xlsx
+++ b/Project1/Data Tables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Table 3" sheetId="3" r:id="rId3"/>
     <sheet name="Table 4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -426,8 +426,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +459,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -489,15 +501,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -506,17 +516,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -787,7 +807,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -798,7 +818,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -810,20 +830,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>92</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -837,252 +857,368 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>58</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>58</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>200</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>200</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>58</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>B3/2</f>
         <v>29</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:F4" si="0">C3/2</f>
         <v>29</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="B6" s="3">
+        <v>50.001800000000003</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50.001800000000003</v>
+      </c>
+      <c r="D6" s="8">
+        <v>172.42</v>
+      </c>
+      <c r="E6" s="8">
+        <v>172.42</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50.001800000000003</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="B7" s="3">
+        <v>262.86009999999999</v>
+      </c>
+      <c r="C7" s="8">
+        <v>399.8331</v>
+      </c>
+      <c r="D7" s="3">
+        <v>399.8331</v>
+      </c>
+      <c r="E7" s="3">
+        <v>399.8331</v>
+      </c>
+      <c r="F7" s="3">
+        <v>399.8331</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="B9" s="3">
+        <f>B11-B13</f>
+        <v>1.0589</v>
+      </c>
+      <c r="C9" s="3">
+        <f>C11-C13</f>
+        <v>-1.2076</v>
+      </c>
+      <c r="D9" s="3">
+        <f>D11-D13</f>
+        <v>-1.2076</v>
+      </c>
+      <c r="E9" s="3">
+        <f>E11-E13</f>
+        <v>-1.2076</v>
+      </c>
+      <c r="F9" s="3">
+        <f>F11-F13</f>
+        <v>-1.2076</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
+      <c r="B10" s="3">
+        <f>B12-B13</f>
+        <v>1.2924</v>
+      </c>
+      <c r="C10" s="3">
+        <f>C12-C13</f>
+        <v>-3.7076000000000002</v>
+      </c>
+      <c r="D10" s="3">
+        <f>D12-D13</f>
+        <v>-2.5</v>
+      </c>
+      <c r="E10" s="3">
+        <f>E12-E13</f>
+        <v>-2.5</v>
+      </c>
+      <c r="F10" s="3">
+        <f>F12-F13</f>
+        <v>-1.2076</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="B11" s="3">
+        <v>-1.4411</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.2924</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-1.2076</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.2924</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.2924</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="B12" s="3">
+        <v>-1.2076</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-1.2076</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-2.5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.2924</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
+      <c r="B13" s="3">
+        <v>-2.5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
+      <c r="B15" s="3">
+        <v>380.4443</v>
+      </c>
+      <c r="C15" s="3">
+        <v>250.11340000000001</v>
+      </c>
+      <c r="D15" s="3">
+        <v>862.46</v>
+      </c>
+      <c r="E15" s="3">
+        <v>862.46</v>
+      </c>
+      <c r="F15" s="3">
+        <v>250.11340000000001</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
+      <c r="B16" s="8">
+        <v>0.81040000000000001</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="D16" s="8">
+        <v>4.6966999999999999</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.6966999999999999</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
+      <c r="B17" s="8">
+        <v>1233.9138</v>
+      </c>
+      <c r="C17" s="8">
+        <v>734.18780000000004</v>
+      </c>
+      <c r="D17" s="8">
+        <v>212.9144</v>
+      </c>
+      <c r="E17" s="8">
+        <v>212.9144</v>
+      </c>
+      <c r="F17" s="8">
+        <v>734.18780000000004</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1096,345 +1232,349 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>58</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>58</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>200</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>200</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>58</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>B3/2</f>
         <v>29</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:F4" si="0">C3/2</f>
         <v>29</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>44.17</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>44.17</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>147.9</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>147.9</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>41.66</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>244</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>359.3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>357.3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>359.3</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>359.3</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>1.04</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>-1.167</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>-1.165</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>-1.167</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>-1.167</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>1.554</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>-3.4460000000000002</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>-2.7189999999999999</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>-2.2810000000000001</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>-1.167</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>-1.46</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>1.333</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>-0.94640000000000002</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>1.333</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>1.333</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>-0.94640000000000002</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>-0.94640000000000002</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>-2.5</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.21870000000000001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>1.333</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>-2.5</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>2.5</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.21870000000000001</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>2.5</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>2.5</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>362</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>245.9</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>827.8</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>823.2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>231.9</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>0.71589999999999998</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>1.2032</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>4.0288000000000004</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>4.0288000000000004</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>1.1348</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="8">
         <v>1396.829</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>831.12339999999995</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>248.2131</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>248.2131</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>881.19830000000002</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1452,157 +1592,168 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4">
+      <c r="B3" s="8">
+        <v>43.913800000000002</v>
+      </c>
+      <c r="C3" s="8">
         <f>20*LOG10(ABS(178.19))</f>
         <v>45.017666556679352</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
+      <c r="B4" s="3">
+        <v>44.866700000000002</v>
+      </c>
+      <c r="C4" s="8">
         <f>20*LOG10(ABS(201.33))</f>
         <v>46.078169870719094</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
+      <c r="B5" s="3">
+        <v>0.95289999999999997</v>
+      </c>
+      <c r="C5" s="8">
         <f>C4-C3</f>
         <v>1.0605033140397424</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
+      <c r="B7" s="3">
+        <v>1.147</v>
+      </c>
+      <c r="C7" s="3">
         <v>1.208</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5">
+      <c r="B8" s="7">
+        <v>1.36212</v>
+      </c>
+      <c r="C8" s="7">
         <f>SUM('Table 3'!B6,'Table 3'!D6,'Table 3'!F6)*5/1000</f>
         <v>1.16865</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>